--- a/outcomes/maxium error.xlsx
+++ b/outcomes/maxium error.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="kf_max" sheetId="1" r:id="rId1"/>
@@ -637,8 +637,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1007,10 +1010,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>kf_max!$A$1:$BV$1</c:f>
+              <c:f>kf_max!$A$1:$CC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>4.15546</c:v>
                 </c:pt>
@@ -1229,9 +1232,6 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1.1597</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.16196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,7 +1258,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>kf_max!$A$2:$BV$2</c:f>
+              <c:f>kf_max!$A$2:$CC$2</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1294,10 +1294,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>kf_max!$A$3:$BV$3</c:f>
+              <c:f>kf_max!$A$3:$CC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>3.93511</c:v>
                 </c:pt>
@@ -1516,9 +1516,6 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.964983</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.15335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,10 +1553,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>kf_max!$A$4:$BV$4</c:f>
+              <c:f>kf_max!$A$4:$CC$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>3.87692</c:v>
                 </c:pt>
@@ -1778,9 +1775,6 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.668826</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.475925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,10 +1812,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>kf_max!$A$5:$BV$5</c:f>
+              <c:f>kf_max!$A$5:$CC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>4.19238</c:v>
                 </c:pt>
@@ -2041,8 +2035,264 @@
                 <c:pt idx="72">
                   <c:v>4.0439</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.05952</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"hidden markov model"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hidden markov model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>kf_max!$A$6:$CC$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>3.79313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.81843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.58894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.38107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.97586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.88857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.92461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.06293</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.64602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.39408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.39792</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.37068</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.27741</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.31944</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.07459</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.27208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.19709</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.07972</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.48464</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11937</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.07502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.97814</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.21888</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1151</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.24435</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0533</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.97696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.24592</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.35226</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.06729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.27386</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.87638</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.16223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0309</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.97851</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.04379</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.13569</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.12104</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.3638</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.17371</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.01711</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.17587</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.92412</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.07548</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.88235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.13633</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.37235</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.10462</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.03515</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.04674</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.94888</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.25568</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.43353</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.99322</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.95687</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.89251</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.96777</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.28158</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.01767</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.99138</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.92306</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.89498</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.8784</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.67111</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5574</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.62638</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.53415</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5727</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.67007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.57123</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.84408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2794,14 +3044,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2809,7 +3059,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="635" y="723900"/>
+        <a:off x="635" y="1073150"/>
         <a:ext cx="8336915" cy="4838700"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3081,15 +3331,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BV5"/>
+  <dimension ref="A1:BU6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:73">
       <c r="A1">
         <v>4.15546</v>
       </c>
@@ -3309,12 +3559,9 @@
       <c r="BU1">
         <v>1.1597</v>
       </c>
-      <c r="BV1">
-        <v>1.16196</v>
-      </c>
     </row>
     <row r="2" hidden="1"/>
-    <row r="3" spans="1:74">
+    <row r="3" spans="1:73">
       <c r="A3">
         <v>3.93511</v>
       </c>
@@ -3534,11 +3781,8 @@
       <c r="BU3">
         <v>0.964983</v>
       </c>
-      <c r="BV3">
-        <v>1.15335</v>
-      </c>
     </row>
-    <row r="4" spans="1:74">
+    <row r="4" spans="1:73">
       <c r="A4">
         <v>3.87692</v>
       </c>
@@ -3758,11 +4002,8 @@
       <c r="BU4">
         <v>0.668826</v>
       </c>
-      <c r="BV4">
-        <v>0.475925</v>
-      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:74">
+    <row r="5" s="1" customFormat="1" spans="1:73">
       <c r="A5" s="1">
         <v>4.19238</v>
       </c>
@@ -3982,8 +4223,226 @@
       <c r="BU5" s="1">
         <v>4.0439</v>
       </c>
-      <c r="BV5" s="1">
-        <v>4.05952</v>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:73">
+      <c r="A6" s="2">
+        <v>3.79313</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.81843</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.58894</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.38107</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.97586</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.88857</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.92461</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.9363</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.06293</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.64602</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.39408</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2.39792</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2.37068</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.27741</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2.31944</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2.07459</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2.27208</v>
+      </c>
+      <c r="R6" s="2">
+        <v>2.116</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2.19709</v>
+      </c>
+      <c r="T6" s="2">
+        <v>2.07972</v>
+      </c>
+      <c r="U6" s="2">
+        <v>2.48464</v>
+      </c>
+      <c r="V6" s="2">
+        <v>2.11937</v>
+      </c>
+      <c r="W6" s="2">
+        <v>2.07502</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1.97814</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>2.21888</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>2.1151</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>2.24435</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>2.0533</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1.97696</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>2.24592</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>2.35226</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>2.06729</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>2.27386</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>1.87638</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>2.16223</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>2.0309</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>1.97851</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>2.04379</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>2.13569</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>2.12104</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>2.3638</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>2.17371</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>2.01711</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>2.17587</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>1.92412</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>2.07548</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>1.88235</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>2.13633</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>2.37235</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>2.10462</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>2.03515</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>2.04674</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>1.94888</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>2.25568</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>2.43353</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>1.99322</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>1.95687</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>1.89251</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>1.96777</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>2.28158</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>2.01767</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>1.99138</v>
+      </c>
+      <c r="BK6" s="2">
+        <v>1.92306</v>
+      </c>
+      <c r="BL6" s="2">
+        <v>1.89498</v>
+      </c>
+      <c r="BM6" s="2">
+        <v>1.8784</v>
+      </c>
+      <c r="BN6" s="2">
+        <v>1.67111</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>1.5574</v>
+      </c>
+      <c r="BP6" s="2">
+        <v>1.62638</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>1.53415</v>
+      </c>
+      <c r="BR6" s="2">
+        <v>1.5727</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>1.67007</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>1.57123</v>
+      </c>
+      <c r="BU6" s="2">
+        <v>1.84408</v>
       </c>
     </row>
   </sheetData>
